--- a/biology/Médecine/Le_Pôle_du_cœur/Le_Pôle_du_cœur.xlsx
+++ b/biology/Médecine/Le_Pôle_du_cœur/Le_Pôle_du_cœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_P%C3%B4le_du_c%C5%93ur</t>
+          <t>Le_Pôle_du_cœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pôle du cœur est une association créée en 2006 pour servir de relais d'information et de prévention sur les maladies cardio-vasculaires. Le Pôle du cœur est situé au sein de l'Hôpital européen Georges-Pompidou à Paris et fait partie intégrante du Pôle cardio-vasculaire de ce dernier.
 Fonctionnel depuis l'ouverture de l'HEGP en 2001, le Pôle cardio-vasculaire prend son essor et sa reconnaissance légale grâce à l'ordonnance du 2 mai 2005 décrivant « la nouvelle gouvernance des établissements de santé » et le fonctionnement en pôle avec à sa tête un responsable médical, le professeur Alain Deloche.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_P%C3%B4le_du_c%C5%93ur</t>
+          <t>Le_Pôle_du_cœur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Grâce aux dons qu'il reçoit régulièrement, le Pôle du cœur permet de soutenir la recherche pour résoudre de nombreuses pathologies. Le Pôle s'organise autour de cinq thématiques, cinq problématiques santé mêlées au risques cardiaques :
 prévention cardio-vasculaire ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_P%C3%B4le_du_c%C5%93ur</t>
+          <t>Le_Pôle_du_cœur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Composition du Pôle cardio-vasculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chirurgie cardio-vasculaire + Réanimation chirurgicale : Professeurs Alain Deloche et Jean-Noël Fabiani
 Cardiologie :
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_P%C3%B4le_du_c%C5%93ur</t>
+          <t>Le_Pôle_du_cœur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">poleducoeur.fr, site officiel
  Portail de la médecine   Portail des associations                    </t>
